--- a/data/trans_dic/P74B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Edad-trans_dic.xlsx
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,43</t>
+          <t>0,0; 19,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,19</t>
+          <t>0,0; 36,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,44</t>
+          <t>0,0; 60,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,38</t>
+          <t>0,0; 46,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,93</t>
+          <t>0,0; 17,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>0,0; 10,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 22,05</t>
+          <t>2,36; 25,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 20,03</t>
+          <t>3,17; 21,58</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,85</t>
+          <t>0,55; 5,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 2,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,41</t>
+          <t>1,99; 9,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,27 +815,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,9; 37,37</t>
+          <t>15,14; 35,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 27,91</t>
+          <t>6,23; 26,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,8</t>
+          <t>0,51; 5,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,81</t>
+          <t>6,18; 15,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,64</t>
+          <t>4,01; 11,89</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,17</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,84</t>
+          <t>2,19; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,44</t>
+          <t>2,29; 7,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 44,59</t>
+          <t>17,14; 46,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 25,83</t>
+          <t>11,71; 25,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,67</t>
+          <t>12,93; 28,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,78</t>
+          <t>2,74; 7,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,54</t>
+          <t>5,92; 11,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,01</t>
+          <t>6,51; 12,72</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,7</t>
+          <t>0,86; 4,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,74</t>
+          <t>1,86; 7,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,98</t>
+          <t>2,72; 8,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,27; 81,6</t>
+          <t>59,76; 82,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 53,52</t>
+          <t>33,9; 52,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 36,73</t>
+          <t>21,22; 36,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 19,84</t>
+          <t>12,13; 19,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 21,23</t>
+          <t>13,16; 21,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,83</t>
+          <t>9,63; 16,42</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,49</t>
+          <t>5,43; 12,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,29</t>
+          <t>5,34; 12,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,91</t>
+          <t>5,15; 12,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,61; 91,94</t>
+          <t>82,01; 92,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,46; 89,57</t>
+          <t>79,71; 89,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,8; 86,8</t>
+          <t>74,91; 86,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 42,9</t>
+          <t>33,44; 42,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,53; 47,65</t>
+          <t>38,52; 47,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,82; 45,16</t>
+          <t>35,47; 44,91</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,13; 22,99</t>
+          <t>15,77; 23,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,44; 35,92</t>
+          <t>25,93; 36,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,38; 32,97</t>
+          <t>23,98; 33,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,6; 97,48</t>
+          <t>92,48; 97,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,43; 99,09</t>
+          <t>95,36; 99,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,13; 99,71</t>
+          <t>96,93; 99,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,37; 56,82</t>
+          <t>49,71; 57,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,49; 65,05</t>
+          <t>58,0; 65,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,34; 65,46</t>
+          <t>58,62; 65,61</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,66; 14,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,39</t>
+          <t>10,8; 14,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,86; 85,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,88; 71,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,61</t>
+          <t>62,84; 69,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,31; 32,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,85</t>
+          <t>32,77; 36,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,73; 35,65</t>
+          <t>31,75; 35,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,77</t>
+          <t>0,0; 20,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,57</t>
+          <t>0,0; 37,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,5</t>
+          <t>0,0; 62,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,15</t>
+          <t>0,0; 42,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,35</t>
+          <t>0,0; 17,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,07</t>
+          <t>0,0; 12,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 25,41</t>
+          <t>2,35; 24,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 21,58</t>
+          <t>3,29; 22,26</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,49</t>
+          <t>0,56; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,89</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,24</t>
+          <t>2,08; 9,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,27 +815,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 35,75</t>
+          <t>15,28; 36,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 26,41</t>
+          <t>5,52; 27,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,13</t>
+          <t>0,52; 6,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 15,45</t>
+          <t>6,26; 15,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 11,89</t>
+          <t>4,18; 12,3</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,83</t>
+          <t>2,06; 6,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,68</t>
+          <t>2,25; 7,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 46,73</t>
+          <t>18,47; 43,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 25,74</t>
+          <t>11,32; 25,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,93; 28,24</t>
+          <t>13,01; 28,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,83</t>
+          <t>2,7; 7,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,68</t>
+          <t>5,97; 11,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,72</t>
+          <t>6,84; 12,63</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,82</t>
+          <t>0,86; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,22</t>
+          <t>1,66; 6,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,69</t>
+          <t>2,68; 8,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 82,28</t>
+          <t>59,31; 81,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,9; 52,59</t>
+          <t>34,96; 53,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 36,0</t>
+          <t>20,97; 36,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 19,63</t>
+          <t>12,26; 19,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 21,28</t>
+          <t>12,98; 21,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,42</t>
+          <t>9,76; 16,88</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,19</t>
+          <t>5,5; 12,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,98</t>
+          <t>5,64; 13,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,85</t>
+          <t>5,58; 12,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,01; 92,02</t>
+          <t>81,99; 92,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,71; 89,2</t>
+          <t>79,44; 89,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,91; 86,36</t>
+          <t>74,49; 86,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,44; 42,95</t>
+          <t>33,64; 42,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,52; 47,62</t>
+          <t>38,86; 48,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,47; 44,91</t>
+          <t>35,65; 44,83</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 23,32</t>
+          <t>15,23; 23,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,93; 36,31</t>
+          <t>26,71; 36,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,98; 33,11</t>
+          <t>24,18; 32,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,48; 97,71</t>
+          <t>92,57; 97,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,36; 99,08</t>
+          <t>95,34; 99,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,93; 99,67</t>
+          <t>96,61; 99,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,71; 57,23</t>
+          <t>49,71; 56,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,0; 65,26</t>
+          <t>57,88; 65,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,62; 65,61</t>
+          <t>58,14; 65,43</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,29; 9,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,56</t>
+          <t>10,66; 14,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,44</t>
+          <t>10,69; 14,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,86; 85,86</t>
+          <t>79,82; 85,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>64,88; 71,28</t>
+          <t>65,09; 71,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,84; 69,56</t>
+          <t>62,95; 69,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,31; 32,35</t>
+          <t>28,28; 32,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,77; 36,93</t>
+          <t>32,77; 36,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,75; 35,77</t>
+          <t>31,82; 35,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,25</t>
+          <t>0,0; 16,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,87</t>
+          <t>0,0; 39,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,78</t>
+          <t>0,0; 52,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,41</t>
+          <t>0,0; 46,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,43</t>
+          <t>0,0; 16,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,54</t>
+          <t>0,0; 12,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 24,96</t>
+          <t>2,33; 22,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 22,26</t>
+          <t>2,12; 20,03</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,94</t>
+          <t>0,55; 5,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,57</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,41</t>
+          <t>2,14; 9,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,27 +815,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 36,52</t>
+          <t>15,9; 37,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 27,18</t>
+          <t>6,55; 27,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,13</t>
+          <t>0,52; 5,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 15,13</t>
+          <t>6,11; 14,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,3</t>
+          <t>3,96; 11,64</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,82</t>
+          <t>2,19; 6,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 7,89</t>
+          <t>2,29; 8,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 43,74</t>
+          <t>18,11; 44,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,32; 25,99</t>
+          <t>11,98; 25,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,01; 28,66</t>
+          <t>13,1; 28,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,63</t>
+          <t>2,68; 7,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,44</t>
+          <t>5,78; 11,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 12,63</t>
+          <t>6,6; 13,01</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,42</t>
+          <t>0,86; 4,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,54</t>
+          <t>1,78; 6,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,23</t>
+          <t>3,05; 8,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,31; 81,23</t>
+          <t>59,27; 81,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,96; 53,1</t>
+          <t>34,58; 53,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 36,54</t>
+          <t>20,75; 36,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,26; 19,48</t>
+          <t>12,27; 19,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 21,44</t>
+          <t>13,17; 21,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 16,88</t>
+          <t>9,92; 16,83</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,49</t>
+          <t>5,53; 12,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,06</t>
+          <t>5,87; 13,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,8</t>
+          <t>5,48; 12,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,99; 92,07</t>
+          <t>81,61; 91,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,44; 89,29</t>
+          <t>79,46; 89,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,49; 86,14</t>
+          <t>73,8; 86,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,64; 42,92</t>
+          <t>33,3; 42,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 48,04</t>
+          <t>38,53; 47,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,65; 44,83</t>
+          <t>35,82; 45,16</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,23; 23,1</t>
+          <t>15,13; 22,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,71; 36,65</t>
+          <t>26,44; 35,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,18; 32,98</t>
+          <t>23,38; 32,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,57; 97,55</t>
+          <t>92,6; 97,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,34; 99,06</t>
+          <t>95,43; 99,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,61; 99,65</t>
+          <t>97,13; 99,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,71; 56,81</t>
+          <t>49,37; 56,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,88; 65,42</t>
+          <t>57,49; 65,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,14; 65,43</t>
+          <t>58,34; 65,46</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,02</t>
+          <t>6,25; 9,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,66</t>
+          <t>10,75; 14,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,35</t>
+          <t>10,76; 14,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,66</t>
+          <t>79,55; 85,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,09; 71,6</t>
+          <t>64,96; 71,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>62,95; 69,33</t>
+          <t>62,85; 69,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,28; 32,29</t>
+          <t>28,27; 32,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,77; 36,97</t>
+          <t>32,8; 36,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,82; 35,97</t>
+          <t>31,73; 35,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P74B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>53,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>59,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>61,69%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,13; 22,99</t>
+          <t>14,37; 24,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,44; 35,92</t>
+          <t>22,33; 34,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,38; 32,97</t>
+          <t>22,56; 33,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,6; 97,48</t>
+          <t>92,64; 98,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>95,43; 99,09</t>
+          <t>92,54; 98,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,13; 99,71</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,37; 56,82</t>
+          <t>49,23; 58,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,49; 65,05</t>
+          <t>54,69; 63,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,34; 65,46</t>
+          <t>57,4; 66,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>64,85%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>62,34%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>13,57; 26,91</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27,93; 44,41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22,77; 35,92</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>88,2; 98,9</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>96,2; 100,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>93,83; 100,0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46,6; 58,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>58,99; 70,37</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>56,47; 67,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,57%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>82,9%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>68,1%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66,14%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,81%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>33,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>6,25; 9,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>10,75; 14,57</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>10,76; 14,39</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>79,55; 85,86</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>64,96; 71,07</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>62,85; 69,61</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>28,27; 32,28</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>32,8; 36,85</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>31,73; 35,65</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P74B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,42 +691,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,43</t>
+          <t>0,0; 20,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,19</t>
+          <t>0,0; 38,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,44</t>
+          <t>0,0; 59,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,38</t>
+          <t>0,0; 44,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,93</t>
+          <t>0,0; 17,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,88</t>
+          <t>0,0; 10,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 22,05</t>
+          <t>2,36; 21,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 20,03</t>
+          <t>3,18; 21,57</t>
         </is>
       </c>
     </row>
@@ -795,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,85</t>
+          <t>0,56; 5,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 9,41</t>
+          <t>1,93; 9,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -815,27 +816,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,9; 37,37</t>
+          <t>15,95; 36,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 27,91</t>
+          <t>5,81; 27,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 5,8</t>
+          <t>0,51; 5,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,81</t>
+          <t>5,92; 15,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,64</t>
+          <t>4,27; 11,68</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,17</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 6,84</t>
+          <t>2,13; 6,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,44</t>
+          <t>2,28; 8,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 44,59</t>
+          <t>17,39; 44,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 25,83</t>
+          <t>12,3; 25,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,67</t>
+          <t>12,73; 28,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,78</t>
+          <t>2,84; 7,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,54</t>
+          <t>5,93; 11,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,01</t>
+          <t>6,18; 12,36</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,7</t>
+          <t>0,91; 4,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,74</t>
+          <t>1,85; 6,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,98</t>
+          <t>2,91; 8,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,27; 81,6</t>
+          <t>60,74; 81,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 53,52</t>
+          <t>34,62; 52,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 36,73</t>
+          <t>20,91; 35,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,27; 19,84</t>
+          <t>11,98; 19,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 21,23</t>
+          <t>13,01; 20,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,83</t>
+          <t>10,01; 16,94</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,49</t>
+          <t>5,31; 11,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,29</t>
+          <t>5,48; 13,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 12,91</t>
+          <t>5,58; 13,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,61; 91,94</t>
+          <t>81,98; 92,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>79,46; 89,57</t>
+          <t>80,01; 89,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,8; 86,8</t>
+          <t>74,82; 86,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,3; 42,9</t>
+          <t>33,37; 42,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,53; 47,65</t>
+          <t>38,78; 47,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,82; 45,16</t>
+          <t>35,83; 45,7</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,53</t>
+          <t>14,32; 24,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,33; 34,82</t>
+          <t>22,27; 35,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,56; 33,36</t>
+          <t>22,07; 33,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,64; 98,17</t>
+          <t>92,42; 98,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,54; 98,47</t>
+          <t>92,48; 98,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>97,18; 100,0</t>
+          <t>96,75; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,23; 58,04</t>
+          <t>49,28; 58,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,69; 63,87</t>
+          <t>53,95; 63,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57,4; 66,23</t>
+          <t>57,36; 66,16</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,57; 26,91</t>
+          <t>13,37; 26,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,93; 44,41</t>
+          <t>28,38; 43,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,77; 35,92</t>
+          <t>23,44; 36,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>88,2; 98,9</t>
+          <t>88,54; 98,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,2; 100,0</t>
+          <t>95,47; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,83; 100,0</t>
+          <t>94,66; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>46,6; 58,83</t>
+          <t>45,91; 58,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>58,99; 70,37</t>
+          <t>58,57; 70,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>56,47; 67,77</t>
+          <t>56,92; 67,67</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,1</t>
+          <t>6,2; 9,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 14,57</t>
+          <t>10,81; 14,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,76; 14,39</t>
+          <t>10,71; 14,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,86</t>
+          <t>79,79; 85,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>64,96; 71,07</t>
+          <t>64,75; 70,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,85; 69,61</t>
+          <t>62,64; 69,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,28</t>
+          <t>28,34; 32,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,85</t>
+          <t>32,72; 36,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,73; 35,65</t>
+          <t>31,87; 36,1</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su pareja percibe algún tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2910</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2688</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1752</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4661</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1967</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8843</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3857</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7877</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5500</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4232</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1000; 8994</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1715; 11617</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20487</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7320</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21454</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>935; 9378</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5123</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3044; 15303</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1697</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12960; 29806</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2943; 13779</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>925; 9559</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12896; 33066</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8902; 24345</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10683</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11322</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13977</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21825</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22039</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15091</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32509</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33361</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6429</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5706; 18014</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5708; 21416</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8098; 20751</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15005; 31369</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14015; 31824</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8731; 24171</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23097; 44631</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22254; 44517</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6287</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9599</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13565</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49885</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57865</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39134</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56172</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67464</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>52699</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2648; 13485</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4962; 17433</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7786; 23898</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42231; 56715</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45959; 70354</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28811; 49429</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43121; 70256</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52237; 83702</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40558; 68662</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23152</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24482</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23189</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>147445</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>194632</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>169231</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>170598</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>219115</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>192419</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14823; 33300</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15168; 37199</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14991; 35359</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>137902; 154856</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>183127; 204380</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>156327; 180785</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>149235; 191719</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>196171; 241823</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>171077; 218186</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>45754</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>66875</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>65901</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>190321</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>187025</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>215714</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>236075</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>253900</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>281615</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>34625; 59100</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>52099; 82048</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52688; 79739</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>183472; 194778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>179377; 191093</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>210641; 217721</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>216993; 256737</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>230849; 272226</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>261857; 302030</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27352</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>59274</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>44780</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>104802</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>141117</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>137684</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>132154</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>200391</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>182464</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18859; 37132</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>47349; 72927</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35758; 55783</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>97589; 109035</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>135759; 142194</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>132665; 140151</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>115376; 148140</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>180997; 217057</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>166581; 198043</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>107100</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>172865</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>169085</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>507414</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>625640</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>592873</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>614514</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>798505</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>761958</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>87757; 128470</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>148641; 200744</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>145447; 194464</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>488369; 524803</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>594825; 651059</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>561515; 621681</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>574679; 654034</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>750687; 845000</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>718371; 813686</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>